--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0179 - Validasi Field report PHR pada searching portal.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0179 - Validasi Field report PHR pada searching portal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926AA06E-F9EE-444A-A674-30EE8934CF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2421895-F70D-4C32-B516-9A015D672B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -118,6 +118,12 @@
 3. Isi field npp sales sendiri dengan 39798
 4. Field tahun dan bulan tidak diisi
 5. Klik generate</t>
+  </si>
+  <si>
+    <t>TEXT4</t>
+  </si>
+  <si>
+    <t>TEXT5</t>
   </si>
 </sst>
 </file>
@@ -512,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,9 +537,8 @@
     <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -582,6 +587,12 @@
         <v>18</v>
       </c>
       <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -620,9 +631,8 @@
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="12"/>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
     </row>
@@ -665,10 +675,10 @@
       <c r="N3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="2"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>

--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0179 - Validasi Field report PHR pada searching portal.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0179 - Validasi Field report PHR pada searching portal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2421895-F70D-4C32-B516-9A015D672B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE2140F-D726-41E6-AE95-B5D19E343CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0179" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Sales</t>
   </si>
   <si>
-    <t>Sesuai dengan BSDD 3.3</t>
-  </si>
-  <si>
     <t>Product Holding</t>
   </si>
   <si>
@@ -101,29 +98,21 @@
     <t>Validasi Field report PHR pada searching portal</t>
   </si>
   <si>
+    <t>TEXT4</t>
+  </si>
+  <si>
+    <t>TEXT5</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - Field Nama dan Tipe Sales akan terisi secara otomatis oleh system berdasarkan field NPP
- - Field NPP, Tahun Data, Bulan Data bersifat mandatori
- - Muncul Pesan NPP, Bulan, dan Tahun Wajib Diisi</t>
-  </si>
-  <si>
-    <t>1. Login digisales portal dengan sales 39798
-2. Buka menu product holding
-3. Isi field npp sales sendiri dengan 39798, bulan februari 2022 (karena hanya ada data ini)
-4. Klik generate
-5. Data muncul</t>
-  </si>
-  <si>
-    <t>1. Login digisales portal dengan sales 39798
-2. Buka menu product holding
-3. Isi field npp sales sendiri dengan 39798
-4. Field tahun dan bulan tidak diisi
-5. Klik generate</t>
-  </si>
-  <si>
-    <t>TEXT4</t>
-  </si>
-  <si>
-    <t>TEXT5</t>
+ - Field NPP, Tahun Data, Bulan Data bersifat mandatori</t>
+  </si>
+  <si>
+    <t>1. login digisales portal dengan sales 39798
+2. buka menu product holding
+3. isi field npp sales sendiri dengan 39798, dengan field bulan februari 2022 (karena hanya ada data ini)
+4. klik generate
+5. data muncul</t>
   </si>
 </sst>
 </file>
@@ -518,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,33 +573,33 @@
         <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="10">
         <v>39798</v>
@@ -622,7 +611,7 @@
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -641,16 +630,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="F3" s="10">
         <v>39798</v>
@@ -662,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -673,11 +662,11 @@
         <v>2022</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
